--- a/Projects/VTA_bus_project/Data_files/TXT_files/1_Steps_to_implement_bus_files.xlsx
+++ b/Projects/VTA_bus_project/Data_files/TXT_files/1_Steps_to_implement_bus_files.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeichman\Documents\gamsdir\projdir\RODeO\Projects\VTA_bus_project\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeichman\Documents\gamsdir\projdir\RODeO\Projects\VTA_bus_project\Data_files\TXT_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D09D4D-4D5D-4DC1-B2F7-08056BC656BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7050F1EA-618F-4487-BD51-A68B2FDA05A2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520" xr2:uid="{BC8FE1C1-219C-417C-B3C0-6905A3871605}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -459,7 +458,7 @@
   <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,8 +654,8 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <f>C14*0.033322222/24/C16/C15/C10</f>
-        <v>1.2280701754385965</v>
+        <f>C13/1000/24/C16/C15/C10</f>
+        <v>1.2280701754385963</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
